--- a/output/fit_clients/fit_round_241.xlsx
+++ b/output/fit_clients/fit_round_241.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1842939484.654973</v>
+        <v>2247514758.302591</v>
       </c>
       <c r="F2" t="n">
-        <v>0.109600240952725</v>
+        <v>0.09820178680359319</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03258807114934283</v>
+        <v>0.03752412573095561</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>921469716.8132799</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1958620508.873867</v>
+        <v>1703253829.841534</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1537605217497498</v>
+        <v>0.1335520612515838</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03285144208267718</v>
+        <v>0.04649808217299019</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>4</v>
-      </c>
-      <c r="J3" t="n">
-        <v>979310288.0762213</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3252548025.650388</v>
+        <v>5230395139.425219</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1415625868862284</v>
+        <v>0.1562561375978315</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03088119249499658</v>
+        <v>0.03654966245096422</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>87</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1626273974.041559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3826576195.664268</v>
+        <v>3425413208.783447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1102174101252992</v>
+        <v>0.1108878170029555</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03195806359876194</v>
+        <v>0.0408861510968528</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>89</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1913288113.020461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1929746172.520022</v>
+        <v>1809033273.544166</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1378995772649797</v>
+        <v>0.1072394436330541</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05536349332931405</v>
+        <v>0.04789238389525871</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>40</v>
-      </c>
-      <c r="J6" t="n">
-        <v>964873123.4497861</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2979105528.31653</v>
+        <v>2579275992.786685</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08542435648967099</v>
+        <v>0.08051643155686794</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04224015131628593</v>
+        <v>0.03474237858953617</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>75</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1489552731.061222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3919582307.896049</v>
+        <v>2915195694.48701</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1643135703674649</v>
+        <v>0.2111456828862639</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03130257417727782</v>
+        <v>0.02905072133562384</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>78</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1959791305.454671</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2135508582.705123</v>
+        <v>2263208030.102072</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1551102444153003</v>
+        <v>0.1741134567905107</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02468319741403468</v>
+        <v>0.03624202763777049</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1067754299.157834</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4270185279.999072</v>
+        <v>3968010366.007131</v>
       </c>
       <c r="F10" t="n">
-        <v>0.190943082715661</v>
+        <v>0.1452860190514791</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05062663968024873</v>
+        <v>0.04508966877231326</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>102</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2135092682.782215</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3779904261.082145</v>
+        <v>3975756246.52219</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1449647406666167</v>
+        <v>0.1317646824340976</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04234346375979798</v>
+        <v>0.04616714220221622</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>100</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1889952127.832361</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2186334989.067039</v>
+        <v>2437368431.018007</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1763285868087693</v>
+        <v>0.1939099758707537</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03600361336669053</v>
+        <v>0.04967340972639844</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>82</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1093167438.03757</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4820277418.900793</v>
+        <v>4893476365.468266</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08011582577768479</v>
+        <v>0.06919743237687316</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02325952776289916</v>
+        <v>0.02678446503572434</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>81</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2410138722.7116</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2518885179.480746</v>
+        <v>2799141868.368037</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1585741381286955</v>
+        <v>0.1476413391842267</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02956764981662713</v>
+        <v>0.03871173553077024</v>
       </c>
       <c r="H14" t="b">
-        <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>79</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1259442658.99729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1400492874.264845</v>
+        <v>1405516626.492635</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09779778710089902</v>
+        <v>0.1037270918563692</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04756686286595866</v>
+        <v>0.03927917407898183</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>700246500.062603</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1877063187.745254</v>
+        <v>1906531471.216298</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0886831703638149</v>
+        <v>0.1098845951971637</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05044717789430332</v>
+        <v>0.03825093835282747</v>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>42</v>
-      </c>
-      <c r="J16" t="n">
-        <v>938531680.3416605</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5050179121.102489</v>
+        <v>4583708289.779748</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1145529263674945</v>
+        <v>0.1509794980852738</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05266679524021883</v>
+        <v>0.0470586755947373</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>71</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2525089543.252228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3766335772.10523</v>
+        <v>2612722026.085563</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1466496560381456</v>
+        <v>0.1683079624047549</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0297553055971343</v>
+        <v>0.02395207508582152</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>79</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1883167860.819422</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1366234798.37012</v>
+        <v>1199884269.813612</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1194743875844389</v>
+        <v>0.1795976769857415</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01778020197874545</v>
+        <v>0.01879296985865761</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>683117517.5810406</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2160781338.398861</v>
+        <v>2378870451.46082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1249698519084517</v>
+        <v>0.1070033555721623</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03194550544136014</v>
+        <v>0.03124117671210345</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>36</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1080390678.409104</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1831020841.337382</v>
+        <v>2081882463.371359</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09620643503028374</v>
+        <v>0.09445961862195607</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03403113469388608</v>
+        <v>0.04520532415078586</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19</v>
-      </c>
-      <c r="J21" t="n">
-        <v>915510472.7471949</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2610111132.421451</v>
+        <v>3576835920.340392</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1395785781227178</v>
+        <v>0.1074315763576296</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03850456264615074</v>
+        <v>0.05600744761430035</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1305055651.076243</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>999442934.9743363</v>
+        <v>1526350127.491481</v>
       </c>
       <c r="F23" t="n">
-        <v>0.176043674264136</v>
+        <v>0.1806567768920484</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04601307934464961</v>
+        <v>0.0477247081932837</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>499721537.754952</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4093007917.338096</v>
+        <v>3580104777.465407</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1466923458464239</v>
+        <v>0.1445712722310262</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0274891814861671</v>
+        <v>0.03717419222123961</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>71</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2046503920.37407</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>983332287.5309775</v>
+        <v>993633099.7745767</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1039378423121592</v>
+        <v>0.1209301479635964</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02027425993248799</v>
+        <v>0.02720030452220218</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>491666211.5664011</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1373562398.42974</v>
+        <v>952238879.4521991</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1232384857154538</v>
+        <v>0.1102668207151126</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03319819962458755</v>
+        <v>0.03688773193787905</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>686781262.7280369</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4559912932.996425</v>
+        <v>3988468964.015809</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1200187579170754</v>
+        <v>0.1552670686850106</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01868996970510254</v>
+        <v>0.02616262012073976</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>56</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2279956448.854711</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2924201939.051489</v>
+        <v>2698199195.470601</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1445433478850578</v>
+        <v>0.1333873433025669</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03254121863783105</v>
+        <v>0.04716037146425765</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>80</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1462100974.163476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5699590604.334017</v>
+        <v>3927845904.122213</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1098918766611504</v>
+        <v>0.1242085139946826</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04648680686188827</v>
+        <v>0.02871918180012261</v>
       </c>
       <c r="H29" t="b">
         <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>107</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2849795201.214202</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1723485190.06056</v>
+        <v>2176494504.876253</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1281465948926781</v>
+        <v>0.08773783836694866</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03500284030350925</v>
+        <v>0.03889915041867537</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>861742600.9718174</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>939184674.6119946</v>
+        <v>913891590.6996322</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07889408556575968</v>
+        <v>0.1056149114671254</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04726237576501991</v>
+        <v>0.03397827382086194</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>469592350.1536524</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1716414854.529932</v>
+        <v>1571066961.473434</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09122025842206712</v>
+        <v>0.1032368070899241</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03262102785369269</v>
+        <v>0.02557269881573239</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>858207540.4383812</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2036429142.315602</v>
+        <v>2249702923.58294</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1922846343175567</v>
+        <v>0.1513503470285241</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04895388823487681</v>
+        <v>0.05182929919339326</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>73</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1018214648.820444</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1208630160.73785</v>
+        <v>1246773916.907207</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08280008122357256</v>
+        <v>0.09321945712904445</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02776178734568926</v>
+        <v>0.02786266960077581</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>604315083.9831231</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1056948950.24431</v>
+        <v>1245919344.374984</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09021284397413624</v>
+        <v>0.1047640528939047</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02773835305474768</v>
+        <v>0.03171193493955463</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>528474481.1997847</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1991772084.742778</v>
+        <v>2509540536.199165</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1420855403852267</v>
+        <v>0.132738845067593</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02381287090739216</v>
+        <v>0.01743117194307749</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>59</v>
-      </c>
-      <c r="J36" t="n">
-        <v>995886105.0708778</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2370215902.832014</v>
+        <v>1775559555.327389</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08600378759836014</v>
+        <v>0.09068707957241159</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03748131790572691</v>
+        <v>0.03419164338400628</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>62</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1185108029.606821</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1861715540.583748</v>
+        <v>1862182349.404424</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08867987592831002</v>
+        <v>0.1187163569653869</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02744815545951441</v>
+        <v>0.0281637662621608</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>930857768.4447851</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1894260148.519753</v>
+        <v>1743063106.6174</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1746595741361066</v>
+        <v>0.183181154896935</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0306860779705872</v>
+        <v>0.02592953181882091</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>947130084.8314228</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1608832776.70657</v>
+        <v>1620230809.984184</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1340736283826364</v>
+        <v>0.1277699852038049</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04368445439547129</v>
+        <v>0.04869391848869491</v>
       </c>
       <c r="H40" t="b">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>804416327.3039831</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2197175307.472125</v>
+        <v>2073013983.017935</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1545928722117308</v>
+        <v>0.1281163876541587</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03441458294652918</v>
+        <v>0.04684440397420054</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>58</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1098587708.629743</v>
       </c>
     </row>
     <row r="42">
@@ -1856,22 +1606,16 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3094266706.325311</v>
+        <v>3746425938.638045</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1205802697314143</v>
+        <v>0.1027501324782907</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04674350725936811</v>
+        <v>0.03188171674300648</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>79</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1547133320.07084</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2444133759.780612</v>
+        <v>1959234686.874332</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1517559302733499</v>
+        <v>0.1282983526289834</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02018807793223457</v>
+        <v>0.01787077103267881</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>84</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1222066934.145344</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1691508953.951401</v>
+        <v>1718482289.68145</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1010637004283327</v>
+        <v>0.09109159648868559</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03456209391988284</v>
+        <v>0.02838659170046135</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>845754521.7442218</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2190414307.786341</v>
+        <v>1885944522.879019</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1447999728458665</v>
+        <v>0.1815376850711009</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05165820576709436</v>
+        <v>0.04529743083621447</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1095207163.928495</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4684996179.528563</v>
+        <v>5049266618.67484</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1757000677487576</v>
+        <v>0.1264674122059415</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0567382727200917</v>
+        <v>0.05867648130358568</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>86</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2342498098.505608</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3683901333.693124</v>
+        <v>3630659500.097102</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1705332546931022</v>
+        <v>0.1954925580330012</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05237974907460543</v>
+        <v>0.04907357578552406</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>65</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1841950648.044355</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4241824562.912308</v>
+        <v>3805477584.877474</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08138467457253148</v>
+        <v>0.1079096524737476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02918428703930612</v>
+        <v>0.0246996569193344</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>82</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2120912301.749179</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1974832278.497298</v>
+        <v>1345919629.980692</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1506530644675216</v>
+        <v>0.1529737444346244</v>
       </c>
       <c r="G49" t="n">
-        <v>0.027990308741126</v>
+        <v>0.0395640780264556</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>987416097.428611</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3457380906.643466</v>
+        <v>2911135527.692094</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1619292530069151</v>
+        <v>0.1656234901516296</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0339550273738093</v>
+        <v>0.05055566843481413</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>82</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1728690480.595772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1073076186.977212</v>
+        <v>1379012842.953371</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1641305818947953</v>
+        <v>0.1612470304986498</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03994663948764995</v>
+        <v>0.03581702350545891</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>536538165.5993008</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4241506913.450193</v>
+        <v>4355711361.916961</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1360264075915015</v>
+        <v>0.1242358777255922</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04990261374308172</v>
+        <v>0.04489116197736445</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>100</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2120753498.977862</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3584226857.572097</v>
+        <v>3458559256.564579</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1563596179796793</v>
+        <v>0.1731839616531093</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02541615961432011</v>
+        <v>0.03363319950089986</v>
       </c>
       <c r="H53" t="b">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>69</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1792113420.873172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4800407264.630637</v>
+        <v>4678013772.746825</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1253558293555127</v>
+        <v>0.1090203494123403</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03504217039348058</v>
+        <v>0.05061640071033295</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>80</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2400203759.232147</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4273407792.729793</v>
+        <v>4443598166.828928</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1709993878387533</v>
+        <v>0.2169574403079431</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02106633890560117</v>
+        <v>0.02103440547819422</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>68</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2136703883.31189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -2332,22 +1998,16 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1334120204.895397</v>
+        <v>1403715979.878986</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1634913566435592</v>
+        <v>0.1015730721375703</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05050892622279084</v>
+        <v>0.05720408921505469</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>667060169.2934755</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3467024794.450983</v>
+        <v>4388909554.520516</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1388723376553772</v>
+        <v>0.1157216288087806</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02279731311117818</v>
+        <v>0.02204000257172697</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>77</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1733512440.827408</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1558442936.548418</v>
+        <v>1228892124.852448</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1622898882551254</v>
+        <v>0.1386708365435559</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03609948681599885</v>
+        <v>0.03032022843253487</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>779221494.0794665</v>
       </c>
     </row>
     <row r="59">
@@ -2434,22 +2082,16 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5046953677.613601</v>
+        <v>3379112298.406071</v>
       </c>
       <c r="F59" t="n">
-        <v>0.08881865545249945</v>
+        <v>0.09952334851025157</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03410328867912296</v>
+        <v>0.03669573714138774</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>67</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2523476764.243506</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2688868928.059339</v>
+        <v>2632123937.664575</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1986818417324892</v>
+        <v>0.160624276711117</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03286738129552799</v>
+        <v>0.02027340154207032</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>76</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1344434501.733362</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2143202497.839514</v>
+        <v>2309684768.963054</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1457775738347384</v>
+        <v>0.1476629469308887</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02544336556663443</v>
+        <v>0.02267971053717281</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>83</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1071601310.179455</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2014739819.11762</v>
+        <v>1311158094.289818</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1511985218528147</v>
+        <v>0.1176673682828244</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04988796146812961</v>
+        <v>0.04884122725297305</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>1007369969.830391</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4244655901.526597</v>
+        <v>4411397498.809156</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08231037050649136</v>
+        <v>0.1055327495941049</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03688666774427535</v>
+        <v>0.02951347867717873</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>69</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2122328002.221731</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4938268220.731997</v>
+        <v>4084710418.976662</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1890896474397104</v>
+        <v>0.1863958479748231</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02887206852449721</v>
+        <v>0.02512351874740792</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>75</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2469134212.210847</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4968084106.169769</v>
+        <v>5224701863.16615</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1608760752878189</v>
+        <v>0.172941460244021</v>
       </c>
       <c r="G65" t="n">
-        <v>0.01943656557979493</v>
+        <v>0.02273697203908661</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>87</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2484042013.894255</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4454387168.298487</v>
+        <v>4743084239.76762</v>
       </c>
       <c r="F66" t="n">
-        <v>0.120853491202175</v>
+        <v>0.1092774778178265</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03479030746487265</v>
+        <v>0.03359951261741128</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>70</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2227193582.049782</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2616802330.097721</v>
+        <v>2159775799.569006</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08161228583552901</v>
+        <v>0.07522419712399414</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03406416045416871</v>
+        <v>0.04998823453483277</v>
       </c>
       <c r="H67" t="b">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>78</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1308401215.767083</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5684906799.229838</v>
+        <v>3792745350.087734</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1351435937402884</v>
+        <v>0.1122125302140045</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04914294697701968</v>
+        <v>0.0507647420403847</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>79</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2842453497.498107</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2208436633.992459</v>
+        <v>1738923454.531541</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1479088819706783</v>
+        <v>0.136810280934505</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05342710074204558</v>
+        <v>0.04988433342844258</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1104218348.876913</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3578631377.918818</v>
+        <v>2549563003.607232</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06864702781009294</v>
+        <v>0.06685336424208867</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04064937228502609</v>
+        <v>0.03524102627463925</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>68</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1789315703.55718</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5187476950.738071</v>
+        <v>5211695110.086278</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1178710332019493</v>
+        <v>0.1391057138109012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03316005666840117</v>
+        <v>0.02530191075953083</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>88</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2593738595.095628</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1986461032.64134</v>
+        <v>1521485741.43623</v>
       </c>
       <c r="F72" t="n">
-        <v>0.1014541991456095</v>
+        <v>0.06835042219714765</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03659062794875845</v>
+        <v>0.03205181125603948</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>993230464.8498557</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2837093688.929957</v>
+        <v>2548146228.572922</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07526450961484601</v>
+        <v>0.07403157070419243</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03863466987642458</v>
+        <v>0.04337747096611873</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>93</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1418546855.353161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3418556948.812583</v>
+        <v>2472825456.114363</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1295002641105996</v>
+        <v>0.1186679227563924</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02155850283867694</v>
+        <v>0.03123424953022047</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>82</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1709278503.622406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2408922189.095675</v>
+        <v>2027084670.123128</v>
       </c>
       <c r="F75" t="n">
-        <v>0.10887336013753</v>
+        <v>0.102981815710933</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02396660719059151</v>
+        <v>0.02649426147748757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1204461020.447065</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4763790734.457601</v>
+        <v>3752518748.57865</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11115387372155</v>
+        <v>0.07551254206023666</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02432508151921412</v>
+        <v>0.02341764082423198</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>57</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2381895383.987928</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1712789445.421697</v>
+        <v>1743701813.384393</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1183591795950471</v>
+        <v>0.1204786151930752</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02490452712403564</v>
+        <v>0.03076005207021265</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>856394741.7767936</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3080,22 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3492359923.173008</v>
+        <v>4033220375.319765</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1048154121836375</v>
+        <v>0.1050065870023817</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03924906152567982</v>
+        <v>0.04933084871954226</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>84</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1746179963.632805</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1700371094.575118</v>
+        <v>1213325330.655062</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1667715254846747</v>
+        <v>0.1378260345260616</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03009202831572434</v>
+        <v>0.03006869717608001</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>850185616.5284797</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3808677065.160795</v>
+        <v>4456642456.760662</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08468582843099645</v>
+        <v>0.1074005579466598</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02876944918837337</v>
+        <v>0.03119319191079549</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>50</v>
-      </c>
-      <c r="J80" t="n">
-        <v>1904338522.519476</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4862290834.446837</v>
+        <v>3303924704.150792</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1100889960074592</v>
+        <v>0.1316410697589898</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02689519427379754</v>
+        <v>0.03162927862615488</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>55</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2431145412.447232</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4397711941.851085</v>
+        <v>3855544026.165915</v>
       </c>
       <c r="F82" t="n">
-        <v>0.165132896469356</v>
+        <v>0.1588227492377385</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01844244851840293</v>
+        <v>0.02246573511554156</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>86</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2198855988.486244</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1502061449.982412</v>
+        <v>1987087332.024069</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1178341745660996</v>
+        <v>0.1043813493980363</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03927740420204526</v>
+        <v>0.0449572453803653</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>751030648.3490832</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2450117386.246456</v>
+        <v>2295254286.020317</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09403087795006666</v>
+        <v>0.1042348240955685</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04637056276416603</v>
+        <v>0.04569263415682984</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1225058632.206374</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2837936021.397755</v>
+        <v>2317193155.1765</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1632033526571547</v>
+        <v>0.1214747511830311</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05015031687408752</v>
+        <v>0.0448023874615318</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>91</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1418968052.948449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2804360049.234718</v>
+        <v>2410880888.687366</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1587908972231684</v>
+        <v>0.1490696366802524</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02139074218283306</v>
+        <v>0.0238458722225037</v>
       </c>
       <c r="H86" t="b">
         <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>31</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1402180164.100243</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>928349631.3408601</v>
+        <v>1020832529.963723</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1477303496786373</v>
+        <v>0.1278554223672992</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0283137872259135</v>
+        <v>0.03446183027842984</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>464174801.6172955</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3524463740.556108</v>
+        <v>3012863382.335895</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1283940065658118</v>
+        <v>0.1638963958687527</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03038645116140612</v>
+        <v>0.03300512934471934</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>96</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1762231952.540861</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3211440545.110568</v>
+        <v>3395107172.531482</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1130441701288456</v>
+        <v>0.1259141300348335</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02940869070395234</v>
+        <v>0.03139962593384022</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>82</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1605720295.168246</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1688445975.470464</v>
+        <v>1790187857.434964</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1379508667403129</v>
+        <v>0.1034838010040157</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04025005583650244</v>
+        <v>0.03939376649622884</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>844223000.9468113</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>2055130974.176656</v>
+        <v>1525803094.490522</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1253358629873284</v>
+        <v>0.1404586716537203</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04311271763939303</v>
+        <v>0.04452055792662972</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>1027565451.979102</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2458021916.629109</v>
+        <v>2200975134.776173</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08492095110827236</v>
+        <v>0.0864673524554123</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0349093849779498</v>
+        <v>0.03413583933117668</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>61</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1229010939.125616</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4738317844.574895</v>
+        <v>3793816022.643112</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1420886194120958</v>
+        <v>0.1281890484585993</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05378615730301134</v>
+        <v>0.04509015079258966</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>71</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2369158875.137207</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2446624631.446431</v>
+        <v>2530518077.080876</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1597594196046327</v>
+        <v>0.1615554582669106</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03888294187785245</v>
+        <v>0.02713004244720239</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1223312372.17603</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1971364541.803786</v>
+        <v>2369254488.975756</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1109625417507187</v>
+        <v>0.08405928431091585</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04677818001954884</v>
+        <v>0.04060284699358852</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>58</v>
-      </c>
-      <c r="J95" t="n">
-        <v>985682345.4188466</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2127594775.315312</v>
+        <v>2282306832.28324</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1015594763533258</v>
+        <v>0.1229715456373755</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02904228469951475</v>
+        <v>0.03199925343227766</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1063797360.999294</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4303565526.717954</v>
+        <v>3263653562.277061</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1713543283035496</v>
+        <v>0.1646797629981854</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02378733820208965</v>
+        <v>0.02634107433424549</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>79</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2151782844.149761</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2709899725.188931</v>
+        <v>3297901124.080824</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126619130417743</v>
+        <v>0.09950478098710638</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02447813900189092</v>
+        <v>0.0238489239124715</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>65</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1354949827.586256</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3388779436.330954</v>
+        <v>2302940415.468698</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1116749070160577</v>
+        <v>0.1402845131745659</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03502784426929954</v>
+        <v>0.03107418650743499</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>77</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1694389732.319815</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3705359512.598664</v>
+        <v>4779196692.828112</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1182664658569672</v>
+        <v>0.1760970555627127</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02686493698765481</v>
+        <v>0.0266339755733098</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>74</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1852679803.44971</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3197909222.473363</v>
+        <v>2261427272.865266</v>
       </c>
       <c r="F101" t="n">
-        <v>0.149525386271422</v>
+        <v>0.1786466461995733</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03789441052673122</v>
+        <v>0.03688875699990764</v>
       </c>
       <c r="H101" t="b">
         <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>97</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1598954726.481629</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_241.xlsx
+++ b/output/fit_clients/fit_round_241.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2247514758.302591</v>
+        <v>1985208040.288293</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09820178680359319</v>
+        <v>0.09920567335909937</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03752412573095561</v>
+        <v>0.03823700071209814</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1703253829.841534</v>
+        <v>2278405625.880918</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1335520612515838</v>
+        <v>0.1793572798578499</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04649808217299019</v>
+        <v>0.04123791540547322</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>5230395139.425219</v>
+        <v>3454913478.562991</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1562561375978315</v>
+        <v>0.1500579101740503</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03654966245096422</v>
+        <v>0.03026785475256735</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3425413208.783447</v>
+        <v>3979081382.347212</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1108878170029555</v>
+        <v>0.06872680793943839</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0408861510968528</v>
+        <v>0.03916679436923411</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1809033273.544166</v>
+        <v>2544723694.165158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1072394436330541</v>
+        <v>0.1094150423830832</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04789238389525871</v>
+        <v>0.05301556607616435</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2579275992.786685</v>
+        <v>2877010333.369005</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08051643155686794</v>
+        <v>0.08067819694784448</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03474237858953617</v>
+        <v>0.04889365457200527</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2915195694.48701</v>
+        <v>3710249003.953357</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2111456828862639</v>
+        <v>0.2148471743057702</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02905072133562384</v>
+        <v>0.029670152472303</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2263208030.102072</v>
+        <v>2166679101.713417</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1741134567905107</v>
+        <v>0.1316073299050785</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03624202763777049</v>
+        <v>0.03137872333448554</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3968010366.007131</v>
+        <v>4852163218.961701</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1452860190514791</v>
+        <v>0.1637391187059528</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04508966877231326</v>
+        <v>0.03871563961990972</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3975756246.52219</v>
+        <v>3403021587.988442</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1317646824340976</v>
+        <v>0.1191628102893984</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04616714220221622</v>
+        <v>0.04320840452992203</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2437368431.018007</v>
+        <v>2100934692.636775</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1939099758707537</v>
+        <v>0.1212940159038789</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04967340972639844</v>
+        <v>0.05399397837706279</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4893476365.468266</v>
+        <v>5256345701.984789</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06919743237687316</v>
+        <v>0.08040475392012351</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02678446503572434</v>
+        <v>0.02167748521369332</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -822,16 +822,16 @@
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2799141868.368037</v>
+        <v>3049052014.201334</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1476413391842267</v>
+        <v>0.1711958870128676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03871173553077024</v>
+        <v>0.03975416967880243</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1405516626.492635</v>
+        <v>1735764115.790555</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1037270918563692</v>
+        <v>0.06821790575030627</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03927917407898183</v>
+        <v>0.03533285503746868</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,22 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1906531471.216298</v>
+        <v>1941334546.158666</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1098845951971637</v>
+        <v>0.07850097573000704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03825093835282747</v>
+        <v>0.0330347971732813</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4583708289.779748</v>
+        <v>3464558716.99984</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1509794980852738</v>
+        <v>0.1268013811197406</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0470586755947373</v>
+        <v>0.04935078516457616</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2612722026.085563</v>
+        <v>3432396572.241286</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1683079624047549</v>
+        <v>0.1244153846844993</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02395207508582152</v>
+        <v>0.03136983587042665</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1199884269.813612</v>
+        <v>1340441165.279352</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1795976769857415</v>
+        <v>0.1757764802280905</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01879296985865761</v>
+        <v>0.02361612317446974</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2378870451.46082</v>
+        <v>2643374498.687545</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1070033555721623</v>
+        <v>0.1045320173922555</v>
       </c>
       <c r="G20" t="n">
-        <v>0.03124117671210345</v>
+        <v>0.01975839494449964</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2081882463.371359</v>
+        <v>2662208040.314675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09445961862195607</v>
+        <v>0.06176129500429392</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04520532415078586</v>
+        <v>0.03122928875448211</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3576835920.340392</v>
+        <v>3474639209.889184</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1074315763576296</v>
+        <v>0.1328958482368161</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05600744761430035</v>
+        <v>0.04239926213876978</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1074,13 +1074,13 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1526350127.491481</v>
+        <v>1238624698.032891</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1806567768920484</v>
+        <v>0.1857909532600207</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0477247081932837</v>
+        <v>0.05120194150700241</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3580104777.465407</v>
+        <v>2795139816.980622</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1445712722310262</v>
+        <v>0.09198508933150837</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03717419222123961</v>
+        <v>0.03609897155260305</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>993633099.7745767</v>
+        <v>1275494480.545519</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1209301479635964</v>
+        <v>0.08792376299826088</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02720030452220218</v>
+        <v>0.02808262008864501</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>952238879.4521991</v>
+        <v>1089779854.214686</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1102668207151126</v>
+        <v>0.07627879991967869</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03688773193787905</v>
+        <v>0.03105287980248811</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3988468964.015809</v>
+        <v>2971586628.416218</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1552670686850106</v>
+        <v>0.124093921484646</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02616262012073976</v>
+        <v>0.0185422133902873</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2698199195.470601</v>
+        <v>2458230525.259119</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1333873433025669</v>
+        <v>0.1237185481447885</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04716037146425765</v>
+        <v>0.03496209419021306</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3927845904.122213</v>
+        <v>4636861974.83642</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1242085139946826</v>
+        <v>0.1333275084074518</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02871918180012261</v>
+        <v>0.03131355744063252</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2176494504.876253</v>
+        <v>1831894792.100245</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08773783836694866</v>
+        <v>0.1087425348517721</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03889915041867537</v>
+        <v>0.03265370081856445</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>913891590.6996322</v>
+        <v>923666754.4725776</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1056149114671254</v>
+        <v>0.07828392170314909</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03397827382086194</v>
+        <v>0.04993690396597586</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1571066961.473434</v>
+        <v>1416952257.212779</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1032368070899241</v>
+        <v>0.106706577007879</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02557269881573239</v>
+        <v>0.03534481867875166</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1354,13 +1354,13 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2249702923.58294</v>
+        <v>2419479150.824423</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1513503470285241</v>
+        <v>0.1467933292142125</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05182929919339326</v>
+        <v>0.0495909430737528</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1246773916.907207</v>
+        <v>1553558413.868641</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09321945712904445</v>
+        <v>0.08645909989880046</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02786266960077581</v>
+        <v>0.01838925740808509</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1245919344.374984</v>
+        <v>1079771004.04488</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1047640528939047</v>
+        <v>0.07817563017708259</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03171193493955463</v>
+        <v>0.03444590357304057</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2509540536.199165</v>
+        <v>2760186243.106715</v>
       </c>
       <c r="F36" t="n">
-        <v>0.132738845067593</v>
+        <v>0.1419337602667857</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01743117194307749</v>
+        <v>0.02889254227479757</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1775559555.327389</v>
+        <v>2112326789.222548</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09068707957241159</v>
+        <v>0.1101209560218462</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03419164338400628</v>
+        <v>0.04206794536734141</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1862182349.404424</v>
+        <v>1747084641.521071</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1187163569653869</v>
+        <v>0.1064840647570947</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0281637662621608</v>
+        <v>0.03007526238483146</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1743063106.6174</v>
+        <v>1527417657.655484</v>
       </c>
       <c r="F39" t="n">
-        <v>0.183181154896935</v>
+        <v>0.1598613347839849</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02592953181882091</v>
+        <v>0.03112841941779662</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,16 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1620230809.984184</v>
+        <v>1591640052.586589</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1277699852038049</v>
+        <v>0.1419295508649394</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04869391848869491</v>
+        <v>0.03793896361099486</v>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2073013983.017935</v>
+        <v>2915667694.321808</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1281163876541587</v>
+        <v>0.131420312115123</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04684440397420054</v>
+        <v>0.0317225886709285</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3746425938.638045</v>
+        <v>4214794003.499856</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1027501324782907</v>
+        <v>0.1158562390319662</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03188171674300648</v>
+        <v>0.03890285573458122</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1959234686.874332</v>
+        <v>2412658505.9427</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1282983526289834</v>
+        <v>0.180929409516685</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01787077103267881</v>
+        <v>0.02558400933696712</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1718482289.68145</v>
+        <v>2044102649.656203</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09109159648868559</v>
+        <v>0.07588075264202229</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02838659170046135</v>
+        <v>0.03707472060681359</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,13 +1690,13 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1885944522.879019</v>
+        <v>1880223549.893267</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1815376850711009</v>
+        <v>0.1643997393965882</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04529743083621447</v>
+        <v>0.05458138199994515</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5049266618.67484</v>
+        <v>5039700250.704064</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1264674122059415</v>
+        <v>0.1357579144266377</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05867648130358568</v>
+        <v>0.04042360174909847</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3630659500.097102</v>
+        <v>4291139112.943997</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1954925580330012</v>
+        <v>0.1368649123737051</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04907357578552406</v>
+        <v>0.0372265662214324</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3805477584.877474</v>
+        <v>2905038887.356388</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1079096524737476</v>
+        <v>0.09574055357775366</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0246996569193344</v>
+        <v>0.02376396558878583</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1345919629.980692</v>
+        <v>1483025772.737238</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1529737444346244</v>
+        <v>0.1554260398801115</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0395640780264556</v>
+        <v>0.03152654514836535</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2911135527.692094</v>
+        <v>3937514781.599072</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1656234901516296</v>
+        <v>0.1103397348196224</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05055566843481413</v>
+        <v>0.03280852917948344</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1379012842.953371</v>
+        <v>1364570355.356734</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1612470304986498</v>
+        <v>0.1602503991216526</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03581702350545891</v>
+        <v>0.0465036764006513</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4355711361.916961</v>
+        <v>3688583040.023475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1242358777255922</v>
+        <v>0.1340199848315309</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04489116197736445</v>
+        <v>0.05838391903703383</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3458559256.564579</v>
+        <v>3627909397.793141</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1731839616531093</v>
+        <v>0.1659254915717381</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03363319950089986</v>
+        <v>0.03242021648044806</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4678013772.746825</v>
+        <v>4873958471.347612</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1090203494123403</v>
+        <v>0.1541079989947484</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05061640071033295</v>
+        <v>0.04982693180400412</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4443598166.828928</v>
+        <v>4849188696.152185</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2169574403079431</v>
+        <v>0.1369490993093779</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02103440547819422</v>
+        <v>0.02642401949806843</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1403715979.878986</v>
+        <v>1488255119.328129</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1015730721375703</v>
+        <v>0.1212776643132943</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05720408921505469</v>
+        <v>0.04610407031765844</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4388909554.520516</v>
+        <v>4551476777.493445</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1157216288087806</v>
+        <v>0.156280179127112</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02204000257172697</v>
+        <v>0.02463987924692893</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1228892124.852448</v>
+        <v>1686962868.22942</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1386708365435559</v>
+        <v>0.2017534904164448</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03032022843253487</v>
+        <v>0.02633036155479795</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3379112298.406071</v>
+        <v>4623784800.287416</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09952334851025157</v>
+        <v>0.1175426957134231</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03669573714138774</v>
+        <v>0.03714205171412176</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2110,13 +2110,13 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2632123937.664575</v>
+        <v>2864443745.949123</v>
       </c>
       <c r="F60" t="n">
-        <v>0.160624276711117</v>
+        <v>0.1919845802559541</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02027340154207032</v>
+        <v>0.02644848396294247</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2309684768.963054</v>
+        <v>2206329851.83591</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1476629469308887</v>
+        <v>0.1625560467348142</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02267971053717281</v>
+        <v>0.02853480168222507</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1311158094.289818</v>
+        <v>1693231513.903868</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1176673682828244</v>
+        <v>0.1377128805293927</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04884122725297305</v>
+        <v>0.03184917566188231</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4411397498.809156</v>
+        <v>5491320058.044548</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1055327495941049</v>
+        <v>0.1044683739856737</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02951347867717873</v>
+        <v>0.04013407233749327</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4084710418.976662</v>
+        <v>3782101289.102064</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1863958479748231</v>
+        <v>0.1482554970058025</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02512351874740792</v>
+        <v>0.03292898544762376</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2250,16 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5224701863.16615</v>
+        <v>5072753838.776862</v>
       </c>
       <c r="F65" t="n">
-        <v>0.172941460244021</v>
+        <v>0.1401203909937729</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02273697203908661</v>
+        <v>0.03030959201951644</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4743084239.76762</v>
+        <v>4114812709.146685</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1092774778178265</v>
+        <v>0.1603958013401836</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03359951261741128</v>
+        <v>0.04175745564942798</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2159775799.569006</v>
+        <v>3135987569.014995</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07522419712399414</v>
+        <v>0.09988161978739254</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04998823453483277</v>
+        <v>0.03718058073769762</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2334,13 +2334,13 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3792745350.087734</v>
+        <v>4090858606.904096</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1122125302140045</v>
+        <v>0.1467400382944417</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0507647420403847</v>
+        <v>0.04290051309558932</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2362,13 +2362,13 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1738923454.531541</v>
+        <v>1547166672.083537</v>
       </c>
       <c r="F69" t="n">
-        <v>0.136810280934505</v>
+        <v>0.1644290186799406</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04988433342844258</v>
+        <v>0.05816228821186656</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2549563003.607232</v>
+        <v>3102849347.962383</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06685336424208867</v>
+        <v>0.09486623688653617</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03524102627463925</v>
+        <v>0.03125447612858333</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5211695110.086278</v>
+        <v>4126690271.674492</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1391057138109012</v>
+        <v>0.1282122931213517</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02530191075953083</v>
+        <v>0.03194620894926589</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1521485741.43623</v>
+        <v>1604252273.613259</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06835042219714765</v>
+        <v>0.09631639955088124</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03205181125603948</v>
+        <v>0.03527067860700419</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2548146228.572922</v>
+        <v>2879135614.027708</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07403157070419243</v>
+        <v>0.08096373839196547</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04337747096611873</v>
+        <v>0.03703790715632366</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2472825456.114363</v>
+        <v>3645546690.38479</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1186679227563924</v>
+        <v>0.1274963891199612</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03123424953022047</v>
+        <v>0.03034515609054566</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2027084670.123128</v>
+        <v>1664287077.959308</v>
       </c>
       <c r="F75" t="n">
-        <v>0.102981815710933</v>
+        <v>0.1316854705492914</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02649426147748757</v>
+        <v>0.03341484764744757</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,19 +2552,19 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3752518748.57865</v>
+        <v>4625874134.896766</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07551254206023666</v>
+        <v>0.08015481780869317</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02341764082423198</v>
+        <v>0.02674414736582964</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1743701813.384393</v>
+        <v>1974102098.895203</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1204786151930752</v>
+        <v>0.1447210548761111</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03076005207021265</v>
+        <v>0.02553433986709961</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4033220375.319765</v>
+        <v>2950655925.606065</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1050065870023817</v>
+        <v>0.1308663478726943</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04933084871954226</v>
+        <v>0.05724709732980376</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1213325330.655062</v>
+        <v>1757215564.449851</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1378260345260616</v>
+        <v>0.1159742504052099</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03006869717608001</v>
+        <v>0.02980330561045695</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4456642456.760662</v>
+        <v>4634425936.408729</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1074005579466598</v>
+        <v>0.110289358304372</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03119319191079549</v>
+        <v>0.03678613531318422</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3303924704.150792</v>
+        <v>5053565647.029544</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1316410697589898</v>
+        <v>0.1343874308936133</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03162927862615488</v>
+        <v>0.02370188220311201</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3855544026.165915</v>
+        <v>3646826004.753945</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1588227492377385</v>
+        <v>0.1958815519792181</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02246573511554156</v>
+        <v>0.01848805513657116</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1987087332.024069</v>
+        <v>2471159768.701535</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1043813493980363</v>
+        <v>0.1255109802900245</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0449572453803653</v>
+        <v>0.03571647697322747</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2295254286.020317</v>
+        <v>1772550697.782948</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1042348240955685</v>
+        <v>0.08254423288976322</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04569263415682984</v>
+        <v>0.0478960304002668</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2317193155.1765</v>
+        <v>3385961313.323556</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1214747511830311</v>
+        <v>0.148118276204112</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0448023874615318</v>
+        <v>0.03439120033026215</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2410880888.687366</v>
+        <v>2213419351.921641</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1490696366802524</v>
+        <v>0.1438093639836457</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0238458722225037</v>
+        <v>0.01829170230966324</v>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1020832529.963723</v>
+        <v>1348460494.107672</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1278554223672992</v>
+        <v>0.116887254526247</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03446183027842984</v>
+        <v>0.04194668122650949</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2894,13 +2894,13 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3012863382.335895</v>
+        <v>3054013551.888833</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1638963958687527</v>
+        <v>0.1615977397670041</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03300512934471934</v>
+        <v>0.03171481385055113</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2922,13 +2922,13 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3395107172.531482</v>
+        <v>3288220884.615145</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1259141300348335</v>
+        <v>0.1174098283586931</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03139962593384022</v>
+        <v>0.03650233785065281</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1790187857.434964</v>
+        <v>1439289425.122339</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1034838010040157</v>
+        <v>0.09915978258976685</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03939376649622884</v>
+        <v>0.04389118665848306</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1525803094.490522</v>
+        <v>1359114773.264544</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1404586716537203</v>
+        <v>0.1779146917603903</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04452055792662972</v>
+        <v>0.04396780685751606</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2200975134.776173</v>
+        <v>2513107190.416058</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0864673524554123</v>
+        <v>0.07338073100331612</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03413583933117668</v>
+        <v>0.03717607275364899</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,13 +3034,13 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3793816022.643112</v>
+        <v>4356645874.153487</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1281890484585993</v>
+        <v>0.1232844988325836</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04509015079258966</v>
+        <v>0.04036804970636326</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2530518077.080876</v>
+        <v>2393498245.23957</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1615554582669106</v>
+        <v>0.1593394872768945</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02713004244720239</v>
+        <v>0.02800702000863432</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2369254488.975756</v>
+        <v>2299200169.893773</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08405928431091585</v>
+        <v>0.1183304720032275</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04060284699358852</v>
+        <v>0.04701148150947755</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,13 +3118,13 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2282306832.28324</v>
+        <v>1782914795.943383</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1229715456373755</v>
+        <v>0.1292896496801051</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03199925343227766</v>
+        <v>0.02881223654800419</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3263653562.277061</v>
+        <v>4663352213.727584</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1646797629981854</v>
+        <v>0.1444941563159793</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02634107433424549</v>
+        <v>0.02404733310526394</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3297901124.080824</v>
+        <v>3731131960.84529</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09950478098710638</v>
+        <v>0.1293118178216924</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0238489239124715</v>
+        <v>0.02823203187818608</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2302940415.468698</v>
+        <v>2971180395.269857</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1402845131745659</v>
+        <v>0.1412585498447199</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03107418650743499</v>
+        <v>0.03195953625758293</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4779196692.828112</v>
+        <v>3204086297.146212</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1760970555627127</v>
+        <v>0.1587780139968468</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0266339755733098</v>
+        <v>0.01702594491239226</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2261427272.865266</v>
+        <v>2860645524.325627</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1786466461995733</v>
+        <v>0.177011360162753</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03688875699990764</v>
+        <v>0.04530665795329379</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_241.xlsx
+++ b/output/fit_clients/fit_round_241.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1985208040.288293</v>
+        <v>1755967498.847335</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09920567335909937</v>
+        <v>0.09999368605737374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03823700071209814</v>
+        <v>0.03345618603204309</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2278405625.880918</v>
+        <v>1679888893.152285</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1793572798578499</v>
+        <v>0.1663140928556804</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04123791540547322</v>
+        <v>0.04572035019169652</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3454913478.562991</v>
+        <v>5196574227.348783</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1500579101740503</v>
+        <v>0.1500165959726205</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03026785475256735</v>
+        <v>0.027260193727907</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>130</v>
+      </c>
+      <c r="J4" t="n">
+        <v>241</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -570,17 +606,24 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3979081382.347212</v>
+        <v>2983680032.594963</v>
       </c>
       <c r="F5" t="n">
-        <v>0.06872680793943839</v>
+        <v>0.0942554122210541</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03916679436923411</v>
+        <v>0.04472257896699335</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>98</v>
+      </c>
+      <c r="J5" t="n">
+        <v>238</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2544723694.165158</v>
+        <v>2713097785.407074</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1094150423830832</v>
+        <v>0.126324430339367</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05301556607616435</v>
+        <v>0.05646906574560855</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2877010333.369005</v>
+        <v>2231539005.419785</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08067819694784448</v>
+        <v>0.09836992069994768</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04889365457200527</v>
+        <v>0.04543973166848649</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3710249003.953357</v>
+        <v>2508528610.636586</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2148471743057702</v>
+        <v>0.2048164063540854</v>
       </c>
       <c r="G8" t="n">
-        <v>0.029670152472303</v>
+        <v>0.03062596314530364</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>67</v>
+      </c>
+      <c r="J8" t="n">
+        <v>234</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -682,17 +746,24 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2166679101.713417</v>
+        <v>2217583693.594375</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1316073299050785</v>
+        <v>0.1568469726492155</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03137872333448554</v>
+        <v>0.0246358431273513</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4852163218.961701</v>
+        <v>3872737180.863051</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1637391187059528</v>
+        <v>0.1836787324263881</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03871563961990972</v>
+        <v>0.04908350106248897</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>220</v>
+      </c>
+      <c r="J10" t="n">
+        <v>241</v>
+      </c>
+      <c r="K10" t="n">
+        <v>110.5888704075433</v>
       </c>
     </row>
     <row r="11">
@@ -732,23 +812,30 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3403021587.988442</v>
+        <v>2696210931.241557</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1191628102893984</v>
+        <v>0.1629258197141212</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04320840452992203</v>
+        <v>0.03270362324788408</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>100</v>
+      </c>
+      <c r="J11" t="n">
+        <v>239</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2100934692.636775</v>
+        <v>2216868810.415491</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1212940159038789</v>
+        <v>0.1615937391694929</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05399397837706279</v>
+        <v>0.04852300558487286</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +882,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>5256345701.984789</v>
+        <v>3759048253.360425</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08040475392012351</v>
+        <v>0.09235042221428454</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02167748521369332</v>
+        <v>0.02992773906423929</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>121</v>
+      </c>
+      <c r="J13" t="n">
+        <v>241</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +917,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3049052014.201334</v>
+        <v>3240389931.355578</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1711958870128676</v>
+        <v>0.1473467378801863</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03975416967880243</v>
+        <v>0.03188068079657162</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>47</v>
+      </c>
+      <c r="J14" t="n">
+        <v>239</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +952,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1735764115.790555</v>
+        <v>1523752694.810526</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06821790575030627</v>
+        <v>0.0777168737601463</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03533285503746868</v>
+        <v>0.0488224341567663</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +993,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1941334546.158666</v>
+        <v>2626130992.771203</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07850097573000704</v>
+        <v>0.1145218697359817</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0330347971732813</v>
+        <v>0.04153342843850941</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1022,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3464558716.99984</v>
+        <v>3239948146.696861</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1268013811197406</v>
+        <v>0.1067212969827038</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04935078516457616</v>
+        <v>0.04425695441425997</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>116</v>
+      </c>
+      <c r="J17" t="n">
+        <v>240</v>
+      </c>
+      <c r="K17" t="n">
+        <v>67.25252395517933</v>
       </c>
     </row>
     <row r="18">
@@ -934,17 +1065,24 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3432396572.241286</v>
+        <v>3575571001.223001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1244153846844993</v>
+        <v>0.1803926355144076</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03136983587042665</v>
+        <v>0.0266295594550482</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>59</v>
+      </c>
+      <c r="J18" t="n">
+        <v>241</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1340441165.279352</v>
+        <v>887274818.7829688</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1757764802280905</v>
+        <v>0.1596826911238426</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02361612317446974</v>
+        <v>0.02072734569956031</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2643374498.687545</v>
+        <v>2764003177.15164</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1045320173922555</v>
+        <v>0.1477632141340024</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01975839494449964</v>
+        <v>0.02677847181169849</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2662208040.314675</v>
+        <v>2074080325.991831</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06176129500429392</v>
+        <v>0.09306009412146819</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03122928875448211</v>
+        <v>0.03603537844058664</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3474639209.889184</v>
+        <v>3081596202.19506</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1328958482368161</v>
+        <v>0.1318754413337558</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04239926213876978</v>
+        <v>0.04921777863734235</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>62</v>
+      </c>
+      <c r="J22" t="n">
+        <v>239</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1238624698.032891</v>
+        <v>1141330628.071234</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1857909532600207</v>
+        <v>0.1166057130527846</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05120194150700241</v>
+        <v>0.03737894817624804</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1275,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2795139816.980622</v>
+        <v>2871894190.637397</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09198508933150837</v>
+        <v>0.1460297563585733</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03609897155260305</v>
+        <v>0.02537517722619551</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>73</v>
+      </c>
+      <c r="J24" t="n">
+        <v>238</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1304,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1275494480.545519</v>
+        <v>1388586962.756283</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08792376299826088</v>
+        <v>0.1215516734303243</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02808262008864501</v>
+        <v>0.02796789535958315</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1089779854.214686</v>
+        <v>1149699601.764729</v>
       </c>
       <c r="F26" t="n">
-        <v>0.07627879991967869</v>
+        <v>0.07988866225620633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03105287980248811</v>
+        <v>0.03482755452240627</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1374,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2971586628.416218</v>
+        <v>3546981562.974047</v>
       </c>
       <c r="F27" t="n">
-        <v>0.124093921484646</v>
+        <v>0.1037143164796155</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0185422133902873</v>
+        <v>0.01764579110384333</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>98</v>
+      </c>
+      <c r="J27" t="n">
+        <v>240</v>
+      </c>
+      <c r="K27" t="n">
+        <v>77.12264405048202</v>
       </c>
     </row>
     <row r="28">
@@ -1214,17 +1417,24 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2458230525.259119</v>
+        <v>3240268689.632987</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1237185481447885</v>
+        <v>0.1371039675730619</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03496209419021306</v>
+        <v>0.03093311937875973</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>49</v>
+      </c>
+      <c r="J28" t="n">
+        <v>237</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,17 +1452,24 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4636861974.83642</v>
+        <v>5117398029.848021</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1333275084074518</v>
+        <v>0.09561650481082944</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03131355744063252</v>
+        <v>0.02901711952126755</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>229</v>
+      </c>
+      <c r="J29" t="n">
+        <v>241</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1487,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1831894792.100245</v>
+        <v>1617851948.330742</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1087425348517721</v>
+        <v>0.106145299505562</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03265370081856445</v>
+        <v>0.02500516109022925</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1516,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>923666754.4725776</v>
+        <v>1432621793.245569</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07828392170314909</v>
+        <v>0.09035257302892044</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04993690396597586</v>
+        <v>0.04918537013275265</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1557,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1416952257.212779</v>
+        <v>1262945594.620416</v>
       </c>
       <c r="F32" t="n">
-        <v>0.106706577007879</v>
+        <v>0.08656094130753721</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03534481867875166</v>
+        <v>0.03008961011376918</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1586,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2419479150.824423</v>
+        <v>2403312135.41532</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1467933292142125</v>
+        <v>0.1638321166232169</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0495909430737528</v>
+        <v>0.04977100132089329</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1627,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1553558413.868641</v>
+        <v>1387931854.651132</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08645909989880046</v>
+        <v>0.1207852135275331</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01838925740808509</v>
+        <v>0.02391337351311827</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1656,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1079771004.04488</v>
+        <v>1261982907.687828</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07817563017708259</v>
+        <v>0.09576740186568182</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03444590357304057</v>
+        <v>0.02772832381782129</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1438,17 +1697,24 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2760186243.106715</v>
+        <v>2583047410.1738</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1419337602667857</v>
+        <v>0.1433938938038182</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02889254227479757</v>
+        <v>0.01933919497837346</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1466,17 +1732,24 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2112326789.222548</v>
+        <v>1800010834.232192</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1101209560218462</v>
+        <v>0.06836787443666496</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04206794536734141</v>
+        <v>0.04156659779330515</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1761,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1747084641.521071</v>
+        <v>2114190590.999856</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1064840647570947</v>
+        <v>0.1028870913312121</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03007526238483146</v>
+        <v>0.03211534553402233</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1802,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1527417657.655484</v>
+        <v>2013385370.370226</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1598613347839849</v>
+        <v>0.1548906639168855</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03112841941779662</v>
+        <v>0.02951043970922544</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1831,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1591640052.586589</v>
+        <v>1289690666.677237</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1419295508649394</v>
+        <v>0.150356176946534</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03793896361099486</v>
+        <v>0.04249415968024484</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1866,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2915667694.321808</v>
+        <v>2520927615.562934</v>
       </c>
       <c r="F41" t="n">
-        <v>0.131420312115123</v>
+        <v>0.1497767419640813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0317225886709285</v>
+        <v>0.04310119063221707</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,16 +1907,25 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4214794003.499856</v>
+        <v>4178313911.524039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1158562390319662</v>
+        <v>0.1157412943015919</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03890285573458122</v>
+        <v>0.03867872937609693</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>99</v>
+      </c>
+      <c r="J42" t="n">
+        <v>241</v>
+      </c>
+      <c r="K42" t="n">
+        <v>112.1007636179609</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1938,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2412658505.9427</v>
+        <v>2861436177.792441</v>
       </c>
       <c r="F43" t="n">
-        <v>0.180929409516685</v>
+        <v>0.1532231996378606</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02558400933696712</v>
+        <v>0.0171739354720172</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1973,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2044102649.656203</v>
+        <v>1924502486.826641</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07588075264202229</v>
+        <v>0.07133443275840082</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03707472060681359</v>
+        <v>0.03422096857369941</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2014,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1880223549.893267</v>
+        <v>1553825259.438593</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1643997393965882</v>
+        <v>0.1254270513169746</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05458138199994515</v>
+        <v>0.05576410334465903</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,17 +2049,24 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5039700250.704064</v>
+        <v>3919680063.750605</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1357579144266377</v>
+        <v>0.131553578116563</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04042360174909847</v>
+        <v>0.04518864892121977</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>138</v>
+      </c>
+      <c r="J46" t="n">
+        <v>241</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2078,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4291139112.943997</v>
+        <v>3474611961.295148</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1368649123737051</v>
+        <v>0.1363854258922712</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0372265662214324</v>
+        <v>0.05341014073643825</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>108</v>
+      </c>
+      <c r="J47" t="n">
+        <v>240</v>
+      </c>
+      <c r="K47" t="n">
+        <v>70.06217456359221</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2115,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>2905038887.356388</v>
+        <v>3895152651.137942</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09574055357775366</v>
+        <v>0.07219230903719838</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02376396558878583</v>
+        <v>0.02719908386173556</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>120</v>
+      </c>
+      <c r="J48" t="n">
+        <v>241</v>
+      </c>
+      <c r="K48" t="n">
+        <v>109.4148312265954</v>
       </c>
     </row>
     <row r="49">
@@ -1796,23 +2152,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1483025772.737238</v>
+        <v>1883751573.529676</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1554260398801115</v>
+        <v>0.1506961817877163</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03152654514836535</v>
+        <v>0.03572798929484818</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2187,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3937514781.599072</v>
+        <v>3740814040.822399</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1103397348196224</v>
+        <v>0.1419679209961246</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03280852917948344</v>
+        <v>0.0484486176923229</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>78</v>
+      </c>
+      <c r="J50" t="n">
+        <v>241</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2222,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1364570355.356734</v>
+        <v>1262585087.246961</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1602503991216526</v>
+        <v>0.1371644615505118</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0465036764006513</v>
+        <v>0.04337366156667954</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2257,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3688583040.023475</v>
+        <v>4386726091.121663</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1340199848315309</v>
+        <v>0.1066356736332623</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05838391903703383</v>
+        <v>0.04949654057804496</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>156</v>
+      </c>
+      <c r="J52" t="n">
+        <v>241</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2298,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3627909397.793141</v>
+        <v>2412328069.123762</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1659254915717381</v>
+        <v>0.1714769831320048</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03242021648044806</v>
+        <v>0.02245117793554347</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>33</v>
+      </c>
+      <c r="J53" t="n">
+        <v>234</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2327,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4873958471.347612</v>
+        <v>4413115116.022572</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1541079989947484</v>
+        <v>0.1189840565841098</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04982693180400412</v>
+        <v>0.04536769508582179</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>128</v>
+      </c>
+      <c r="J54" t="n">
+        <v>240</v>
+      </c>
+      <c r="K54" t="n">
+        <v>106.4858400921893</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4849188696.152185</v>
+        <v>3016051692.963839</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1369490993093779</v>
+        <v>0.1723185246058092</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02642401949806843</v>
+        <v>0.03071654092349077</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>108</v>
+      </c>
+      <c r="J55" t="n">
+        <v>240</v>
+      </c>
+      <c r="K55" t="n">
+        <v>63.37227081615524</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2401,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1488255119.328129</v>
+        <v>1383374804.814452</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1212776643132943</v>
+        <v>0.1140402674101989</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04610407031765844</v>
+        <v>0.05521081985422888</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4551476777.493445</v>
+        <v>4329718644.63169</v>
       </c>
       <c r="F57" t="n">
-        <v>0.156280179127112</v>
+        <v>0.1503247427091748</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02463987924692893</v>
+        <v>0.02582339042327051</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>95</v>
+      </c>
+      <c r="J57" t="n">
+        <v>240</v>
+      </c>
+      <c r="K57" t="n">
+        <v>105.429218481513</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1686962868.22942</v>
+        <v>1148591753.755802</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2017534904164448</v>
+        <v>0.1491470304062609</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02633036155479795</v>
+        <v>0.03895662591298905</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2508,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4623784800.287416</v>
+        <v>4152137768.344635</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1175426957134231</v>
+        <v>0.0986621825429768</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03714205171412176</v>
+        <v>0.03237618574642544</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>116</v>
+      </c>
+      <c r="J59" t="n">
+        <v>241</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,22 +2543,31 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2864443745.949123</v>
+        <v>3189872714.70106</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1919845802559541</v>
+        <v>0.1451005688299969</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02644848396294247</v>
+        <v>0.02342213946341111</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>34</v>
+      </c>
+      <c r="J60" t="n">
+        <v>240</v>
+      </c>
+      <c r="K60" t="n">
+        <v>78.86025536504616</v>
       </c>
     </row>
     <row r="61">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2206329851.83591</v>
+        <v>2773588750.688512</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1625560467348142</v>
+        <v>0.1587892037198091</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02853480168222507</v>
+        <v>0.02709493946670555</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>6</v>
+      </c>
+      <c r="J61" t="n">
+        <v>188</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1693231513.903868</v>
+        <v>1629571689.53602</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1377128805293927</v>
+        <v>0.1764215875153002</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03184917566188231</v>
+        <v>0.04903364267895132</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2194,17 +2656,24 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5491320058.044548</v>
+        <v>4248692155.268435</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1044683739856737</v>
+        <v>0.1054284598968678</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04013407233749327</v>
+        <v>0.0344700618399753</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>117</v>
+      </c>
+      <c r="J63" t="n">
+        <v>241</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2685,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3782101289.102064</v>
+        <v>4409418483.34568</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1482554970058025</v>
+        <v>0.1279994529561318</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03292898544762376</v>
+        <v>0.02564939159498502</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>119</v>
+      </c>
+      <c r="J64" t="n">
+        <v>240</v>
+      </c>
+      <c r="K64" t="n">
+        <v>101.517729281208</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5072753838.776862</v>
+        <v>5618133323.949005</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1401203909937729</v>
+        <v>0.1404611479571995</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03030959201951644</v>
+        <v>0.02828231537312269</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>193</v>
+      </c>
+      <c r="J65" t="n">
+        <v>241</v>
+      </c>
+      <c r="K65" t="n">
+        <v>107.9451458516979</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4114812709.146685</v>
+        <v>5520698329.543319</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1603958013401836</v>
+        <v>0.1056271054664919</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04175745564942798</v>
+        <v>0.03110548106880556</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>119</v>
+      </c>
+      <c r="J66" t="n">
+        <v>240</v>
+      </c>
+      <c r="K66" t="n">
+        <v>95.95703602914429</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3135987569.014995</v>
+        <v>2370928505.358873</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09988161978739254</v>
+        <v>0.0751270558020324</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03718058073769762</v>
+        <v>0.03947358804780732</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>5</v>
+      </c>
+      <c r="J67" t="n">
+        <v>235</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4090858606.904096</v>
+        <v>4208651318.853409</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1467400382944417</v>
+        <v>0.1324086750397893</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04290051309558932</v>
+        <v>0.0424054054708807</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>122</v>
+      </c>
+      <c r="J68" t="n">
+        <v>240</v>
+      </c>
+      <c r="K68" t="n">
+        <v>104.7602545823989</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1547166672.083537</v>
+        <v>2209005435.769783</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1644290186799406</v>
+        <v>0.1285680110327796</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05816228821186656</v>
+        <v>0.05555332039180019</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,22 +2903,31 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3102849347.962383</v>
+        <v>3578896470.980979</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09486623688653617</v>
+        <v>0.06734487678775214</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03125447612858333</v>
+        <v>0.03270972853154464</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>38</v>
+      </c>
+      <c r="J70" t="n">
+        <v>240</v>
+      </c>
+      <c r="K70" t="n">
+        <v>82.90345490532218</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2940,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4126690271.674492</v>
+        <v>3523933569.11284</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1282122931213517</v>
+        <v>0.1451253713429012</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03194620894926589</v>
+        <v>0.02881647731423845</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>182</v>
+      </c>
+      <c r="J71" t="n">
+        <v>240</v>
+      </c>
+      <c r="K71" t="n">
+        <v>89.37925499807875</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1604252273.613259</v>
+        <v>1403191950.893927</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09631639955088124</v>
+        <v>0.06705026121135904</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03527067860700419</v>
+        <v>0.03886596547113172</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3012,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2879135614.027708</v>
+        <v>2937742484.190526</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08096373839196547</v>
+        <v>0.1097828300782545</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03703790715632366</v>
+        <v>0.03487555823177125</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>13</v>
+      </c>
+      <c r="J73" t="n">
+        <v>233</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3645546690.38479</v>
+        <v>4014383284.947796</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1274963891199612</v>
+        <v>0.1213138584068737</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03034515609054566</v>
+        <v>0.02422743731724579</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>69</v>
+      </c>
+      <c r="J74" t="n">
+        <v>241</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3082,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1664287077.959308</v>
+        <v>1863949190.395478</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1316854705492914</v>
+        <v>0.163148875114703</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03341484764744757</v>
+        <v>0.03014554094006591</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3117,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4625874134.896766</v>
+        <v>3631841065.058075</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08015481780869317</v>
+        <v>0.1113063120156484</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02674414736582964</v>
+        <v>0.03231251578304806</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>112</v>
+      </c>
+      <c r="J76" t="n">
+        <v>240</v>
+      </c>
+      <c r="K76" t="n">
+        <v>82.41594171243507</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3154,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1974102098.895203</v>
+        <v>2168634393.388445</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1447210548761111</v>
+        <v>0.1137073237543907</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02553433986709961</v>
+        <v>0.0264089732990271</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3189,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2950655925.606065</v>
+        <v>4524193110.824584</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1308663478726943</v>
+        <v>0.1214894135981311</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05724709732980376</v>
+        <v>0.03444911575881272</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>119</v>
+      </c>
+      <c r="J78" t="n">
+        <v>241</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1757215564.449851</v>
+        <v>1726348196.741193</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1159742504052099</v>
+        <v>0.128381365778865</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02980330561045695</v>
+        <v>0.03971362070204919</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4634425936.408729</v>
+        <v>5414797554.975252</v>
       </c>
       <c r="F80" t="n">
-        <v>0.110289358304372</v>
+        <v>0.06829244552322535</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03678613531318422</v>
+        <v>0.0340665448217859</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>117</v>
+      </c>
+      <c r="J80" t="n">
+        <v>241</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3294,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5053565647.029544</v>
+        <v>5155450591.141215</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1343874308936133</v>
+        <v>0.08690925452719947</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02370188220311201</v>
+        <v>0.03167940886811611</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>111</v>
+      </c>
+      <c r="J81" t="n">
+        <v>240</v>
+      </c>
+      <c r="K81" t="n">
+        <v>92.12751299693332</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3331,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3646826004.753945</v>
+        <v>4683645684.117121</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1958815519792181</v>
+        <v>0.1436227365768963</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01848805513657116</v>
+        <v>0.01912777406137067</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>182</v>
+      </c>
+      <c r="J82" t="n">
+        <v>241</v>
+      </c>
+      <c r="K82" t="n">
+        <v>107.8502128914081</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3368,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2471159768.701535</v>
+        <v>1756214847.437235</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1255109802900245</v>
+        <v>0.1550575443424262</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03571647697322747</v>
+        <v>0.03099481269236154</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3409,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1772550697.782948</v>
+        <v>2202796369.387514</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08254423288976322</v>
+        <v>0.08511582830723605</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0478960304002668</v>
+        <v>0.04708710070010133</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3438,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3385961313.323556</v>
+        <v>3137512713.128136</v>
       </c>
       <c r="F85" t="n">
-        <v>0.148118276204112</v>
+        <v>0.1510177840379858</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03439120033026215</v>
+        <v>0.04521614465288269</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>33</v>
+      </c>
+      <c r="J85" t="n">
+        <v>239</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3479,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2213419351.921641</v>
+        <v>1994670525.895459</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1438093639836457</v>
+        <v>0.1119572962552965</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01829170230966324</v>
+        <v>0.02359580317314425</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3508,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1348460494.107672</v>
+        <v>1463914462.918564</v>
       </c>
       <c r="F87" t="n">
-        <v>0.116887254526247</v>
+        <v>0.1696028915488804</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04194668122650949</v>
+        <v>0.04323393298827045</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3549,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3054013551.888833</v>
+        <v>3135608875.409719</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1615977397670041</v>
+        <v>0.1199833012531733</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03171481385055113</v>
+        <v>0.0306173109353105</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>35</v>
+      </c>
+      <c r="J88" t="n">
+        <v>238</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3578,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3288220884.615145</v>
+        <v>3424053939.745681</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1174098283586931</v>
+        <v>0.1244712776011999</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03650233785065281</v>
+        <v>0.03632755586574669</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>17</v>
+      </c>
+      <c r="J89" t="n">
+        <v>241</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3613,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1439289425.122339</v>
+        <v>1321418277.450093</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09915978258976685</v>
+        <v>0.09078574475000151</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04389118665848306</v>
+        <v>0.03487918214172445</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3648,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1359114773.264544</v>
+        <v>1787711499.661098</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1779146917603903</v>
+        <v>0.1477859554770898</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04396780685751606</v>
+        <v>0.06098221752571057</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3006,17 +3689,24 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2513107190.416058</v>
+        <v>2897531261.420919</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07338073100331612</v>
+        <v>0.09088167682872927</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03717607275364899</v>
+        <v>0.03328587229613959</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3718,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4356645874.153487</v>
+        <v>3055465069.064902</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1232844988325836</v>
+        <v>0.1084064973592097</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04036804970636326</v>
+        <v>0.04644533827802432</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>107</v>
+      </c>
+      <c r="J93" t="n">
+        <v>240</v>
+      </c>
+      <c r="K93" t="n">
+        <v>63.46388816094716</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3755,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2393498245.23957</v>
+        <v>1998139938.545699</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1593394872768945</v>
+        <v>0.1245681850259624</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02800702000863432</v>
+        <v>0.02943207105963699</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3790,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2299200169.893773</v>
+        <v>3232046644.794122</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1183304720032275</v>
+        <v>0.13023545900827</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04701148150947755</v>
+        <v>0.03953655965212858</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3825,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1782914795.943383</v>
+        <v>2009137681.082137</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1292896496801051</v>
+        <v>0.1221617992306269</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02881223654800419</v>
+        <v>0.04075677204201517</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3866,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4663352213.727584</v>
+        <v>4111070881.74486</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1444941563159793</v>
+        <v>0.1244434746693993</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02404733310526394</v>
+        <v>0.02036303595136934</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>116</v>
+      </c>
+      <c r="J97" t="n">
+        <v>241</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3731131960.84529</v>
+        <v>2395373943.101545</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1293118178216924</v>
+        <v>0.1081303813818011</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02823203187818608</v>
+        <v>0.02751376375199559</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>59</v>
+      </c>
+      <c r="J98" t="n">
+        <v>239</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2971180395.269857</v>
+        <v>2884319750.190101</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1412585498447199</v>
+        <v>0.1172161138674066</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03195953625758293</v>
+        <v>0.02491008919413333</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>211</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3204086297.146212</v>
+        <v>3644226754.716711</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1587780139968468</v>
+        <v>0.1144048043975453</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01702594491239226</v>
+        <v>0.02553045196530878</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>100</v>
+      </c>
+      <c r="J100" t="n">
+        <v>241</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2860645524.325627</v>
+        <v>3328006275.66967</v>
       </c>
       <c r="F101" t="n">
-        <v>0.177011360162753</v>
+        <v>0.1968855625339834</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04530665795329379</v>
+        <v>0.04968926712723581</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>18</v>
+      </c>
+      <c r="J101" t="n">
+        <v>179</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
